--- a/resources/БАЗА ДАННЫХ/litefinance/excel/BelieveToMI.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/BelieveToMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,69 +503,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 02:30</t>
+          <t>2023.11.27 15:20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.65942</t>
+          <t>1.09346</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 12:05</t>
+          <t>2023.11.27 20:06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6607</t>
+          <t>1.09446</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,75 USD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.24 16:02</t>
+          <t>2023.11.27 17:46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.88129</t>
+          <t>2007.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 11:49</t>
+          <t>2023.11.27 18:52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.88013</t>
+          <t>2010.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1,58 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -577,49 +577,49 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.24 16:09</t>
+          <t>2023.11.27 08:58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.6591</t>
+          <t>1.09453</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 11:48</t>
+          <t>2023.11.27 15:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.66023</t>
+          <t>1.09334</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1,36 USD</t>
+          <t>1,43 USD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.27 13:26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.89813</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 09:42</t>
+          <t>2023.11.27 15:07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.89982</t>
+          <t>2012.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>-0,04 USD</t>
         </is>
       </c>
     </row>
@@ -671,39 +671,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.27 08:01</t>
+          <t>2023.11.24 20:29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.60786</t>
+          <t>0.60891</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 09:37</t>
+          <t>2023.11.27 14:32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.60903</t>
+          <t>0.61026</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1,40 USD</t>
+          <t>1,62 USD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,39 +713,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.27 03:20</t>
+          <t>2023.11.27 07:10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.82907</t>
+          <t>1.26202</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.27 09:25</t>
+          <t>2023.11.27 12:55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.82989</t>
+          <t>1.26311</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,02 USD</t>
+          <t>1,31 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,27 +755,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.24 19:29</t>
+          <t>2023.11.27 02:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.09459</t>
+          <t>0.65942</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.27 12:05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.09574</t>
+          <t>0.6607</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,38 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,69 +797,69 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.26 23:00</t>
+          <t>2023.11.24 16:02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.60782</t>
+          <t>0.88129</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.27 11:49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.60663</t>
+          <t>0.88013</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1,43 USD</t>
+          <t>1,58 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.27 02:29</t>
+          <t>2023.11.24 16:09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.82984</t>
+          <t>0.6591</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.27 03:20</t>
+          <t>2023.11.27 11:48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.82907</t>
+          <t>0.66023</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,02 USD</t>
+          <t>1,36 USD</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -881,39 +881,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.23 14:20</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.37111</t>
+          <t>0.89813</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.27 03:20</t>
+          <t>2023.11.27 09:42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.36479</t>
+          <t>0.89982</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0,28 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,39 +923,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.24 13:00</t>
+          <t>2023.11.27 08:01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.36844</t>
+          <t>0.60786</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.27 03:20</t>
+          <t>2023.11.27 09:37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.36479</t>
+          <t>0.60903</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-0,24 USD</t>
+          <t>1,40 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -965,39 +965,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.24 15:00</t>
+          <t>2023.11.27 03:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.36598</t>
+          <t>0.82907</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.27 03:20</t>
+          <t>2023.11.27 09:25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.36479</t>
+          <t>0.82989</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-0,13 USD</t>
+          <t>0,02 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,123 +1007,123 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.24 19:29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.36076</t>
+          <t>1.09459</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.27 03:20</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.36479</t>
+          <t>1.09574</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,80 USD</t>
+          <t>1,38 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.24 15:55</t>
+          <t>2023.11.26 23:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.65812</t>
+          <t>0.60782</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.27 02:30</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.65933</t>
+          <t>0.60663</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>1,43 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.27 01:35</t>
+          <t>2023.11.27 02:29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.0932</t>
+          <t>0.82984</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.27 02:29</t>
+          <t>2023.11.27 03:20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.0942</t>
+          <t>0.82907</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,75 USD</t>
+          <t>0,02 USD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1133,39 +1133,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.27 00:00</t>
+          <t>2023.11.23 14:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.8292</t>
+          <t>1.37111</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.27 02:28</t>
+          <t>2023.11.27 03:20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.82988</t>
+          <t>1.36479</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,02 USD</t>
+          <t>-0,28 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1175,81 +1175,81 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.27 01:35</t>
+          <t>2023.11.24 13:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.25954</t>
+          <t>1.36844</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.27 02:28</t>
+          <t>2023.11.27 03:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.26054</t>
+          <t>1.36479</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1,05 USD</t>
+          <t>-0,24 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.24 22:45</t>
+          <t>2023.11.24 15:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.8298</t>
+          <t>1.36598</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.27 00:00</t>
+          <t>2023.11.27 03:20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.8295</t>
+          <t>1.36479</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,01 USD</t>
+          <t>-0,13 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1259,39 +1259,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.24 19:50</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.83005</t>
+          <t>1.36076</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.24 22:45</t>
+          <t>2023.11.27 03:20</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.82983</t>
+          <t>1.36479</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>0,80 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1301,69 +1301,69 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.24 13:26</t>
+          <t>2023.11.24 15:55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.60786</t>
+          <t>0.65812</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.24 20:36</t>
+          <t>2023.11.27 02:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.60904</t>
+          <t>0.65933</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1,42 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 01:35</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.82998</t>
+          <t>1.0932</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.24 19:50</t>
+          <t>2023.11.27 02:29</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.0942</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,75 USD</t>
         </is>
       </c>
     </row>
@@ -1385,39 +1385,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.24 14:27</t>
+          <t>2023.11.27 00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.82952</t>
+          <t>0.8292</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 02:28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.83001</t>
+          <t>0.82988</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,01 USD</t>
+          <t>0,02 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.24 15:53</t>
+          <t>2023.11.27 01:35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.09343</t>
+          <t>1.25954</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.24 19:29</t>
+          <t>2023.11.27 02:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.09455</t>
+          <t>1.26054</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1,34 USD</t>
+          <t>1,05 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1469,39 +1469,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.24 14:38</t>
+          <t>2023.11.24 22:45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2001.11</t>
+          <t>0.8298</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.24 18:01</t>
+          <t>2023.11.27 00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2000.65</t>
+          <t>0.8295</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0,46 USD</t>
+          <t>0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1511,39 +1511,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.24 16:28</t>
+          <t>2023.11.24 19:50</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>35391.5</t>
+          <t>0.83005</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.24 17:11</t>
+          <t>2023.11.24 22:45</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>35403.1</t>
+          <t>0.82983</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0,23 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1553,111 +1553,111 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.24 10:04</t>
+          <t>2023.11.24 13:26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.09155</t>
+          <t>0.60786</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.24 16:28</t>
+          <t>2023.11.24 20:36</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.09371</t>
+          <t>0.60904</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9,72 USD</t>
+          <t>1,42 USD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.23 16:20</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>35335.6</t>
+          <t>0.82998</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.24 16:28</t>
+          <t>2023.11.24 19:50</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>35391.9</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,13 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.23 07:10</t>
+          <t>2023.11.24 14:27</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.09134</t>
+          <t>0.82952</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.24 16:28</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.09403</t>
+          <t>0.83001</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-14,93 USD</t>
+          <t>0,01 USD</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1679,81 +1679,81 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.24 16:13</t>
+          <t>2023.11.24 15:53</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.26156</t>
+          <t>1.09343</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.24 16:13</t>
+          <t>2023.11.24 19:29</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.26146</t>
+          <t>1.09455</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0,12 USD</t>
+          <t>1,34 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.24 15:55</t>
+          <t>2023.11.24 14:38</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.25993</t>
+          <t>2001.11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.24 16:13</t>
+          <t>2023.11.24 18:01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.26149</t>
+          <t>2000.65</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1,87 USD</t>
+          <t>0,46 USD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1763,81 +1763,81 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.24 15:53</t>
+          <t>2023.11.24 16:28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.65792</t>
+          <t>35391.5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.24 16:09</t>
+          <t>2023.11.24 17:11</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.65903</t>
+          <t>35403.1</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1,33 USD</t>
+          <t>0,23 USD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.23 12:00</t>
+          <t>2023.11.24 10:04</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.8825</t>
+          <t>1.09155</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.24 16:02</t>
+          <t>2023.11.24 16:28</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.88135</t>
+          <t>1.09371</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1,57 USD</t>
+          <t>9,72 USD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1847,76 +1847,76 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.09.12 08:00</t>
+          <t>2023.11.23 16:20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>35335.6</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.24 16:01</t>
+          <t>2023.11.24 16:28</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>35391.9</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>25,20 USD</t>
+          <t>1,13 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.09 10:25</t>
+          <t>2023.11.23 07:10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.23028</t>
+          <t>1.09134</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.24 16:01</t>
+          <t>2023.11.24 16:28</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.09403</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>71,33 USD</t>
+          <t>-14,93 USD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1931,34 +1931,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.09.10 23:00</t>
+          <t>2023.11.24 16:13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.24943</t>
+          <t>1.26156</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.24 16:01</t>
+          <t>2023.11.24 16:13</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.26146</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>38,05 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1973,39 +1973,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.09.15 15:11</t>
+          <t>2023.11.24 15:55</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.24069</t>
+          <t>1.25993</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.24 16:01</t>
+          <t>2023.11.24 16:13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.26149</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>69,52 USD</t>
+          <t>1,87 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2015,69 +2015,69 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.09.12 22:51</t>
+          <t>2023.11.24 15:53</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.24985</t>
+          <t>0.65792</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.24 16:01</t>
+          <t>2023.11.24 16:09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.65903</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>36,54 USD</t>
+          <t>1,33 USD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.09.13 14:52</t>
+          <t>2023.11.23 12:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.24977</t>
+          <t>0.8825</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.24 16:01</t>
+          <t>2023.11.24 16:02</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.88135</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>36,83 USD</t>
+          <t>1,57 USD</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.09.15 09:59</t>
+          <t>2023.09.12 08:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.24362</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2119,14 +2119,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>58,97 USD</t>
+          <t>25,20 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.09.06 16:07</t>
+          <t>2023.11.09 10:25</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.25051</t>
+          <t>1.23028</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>34,16 USD</t>
+          <t>71,33 USD</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.09.06 15:45</t>
+          <t>2023.09.10 23:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.25449</t>
+          <t>1.24943</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>19,84 USD</t>
+          <t>38,05 USD</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2225,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.09.11 15:30</t>
+          <t>2023.09.15 15:11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.25435</t>
+          <t>1.24069</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>20,34 USD</t>
+          <t>69,52 USD</t>
         </is>
       </c>
     </row>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.09.13 14:48</t>
+          <t>2023.09.12 22:51</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.24833</t>
+          <t>1.24985</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>42,01 USD</t>
+          <t>36,54 USD</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.09.18 17:22</t>
+          <t>2023.09.13 14:52</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.23911</t>
+          <t>1.24977</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>75,20 USD</t>
+          <t>36,83 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.09.06 15:29</t>
+          <t>2023.09.15 09:59</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.25415</t>
+          <t>1.24362</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>18,95 USD</t>
+          <t>58,97 USD</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2393,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.09.12 14:41</t>
+          <t>2023.09.06 16:07</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.24841</t>
+          <t>1.25051</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>41,72 USD</t>
+          <t>34,16 USD</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.09.15 04:02</t>
+          <t>2023.09.06 15:45</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.24215</t>
+          <t>1.25449</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>64,26 USD</t>
+          <t>19,84 USD</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2477,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.09.06 13:57</t>
+          <t>2023.09.11 15:30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.25646</t>
+          <t>1.25435</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12,74 USD</t>
+          <t>20,34 USD</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.09.13 14:33</t>
+          <t>2023.09.13 14:48</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.24711</t>
+          <t>1.24833</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>46,40 USD</t>
+          <t>42,01 USD</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.09.18 12:31</t>
+          <t>2023.09.18 17:22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.24061</t>
+          <t>1.23911</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2581,14 +2581,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>69,80 USD</t>
+          <t>75,20 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.09.21 14:00</t>
+          <t>2023.09.06 15:29</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.22679</t>
+          <t>1.25415</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>59,78 USD</t>
+          <t>18,95 USD</t>
         </is>
       </c>
     </row>
@@ -2645,12 +2645,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.09.12 08:00</t>
+          <t>2023.09.12 14:41</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>1.24841</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2665,14 +2665,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>25,20 USD</t>
+          <t>41,72 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.09 10:25</t>
+          <t>2023.09.15 04:02</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.23028</t>
+          <t>1.24215</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>71,33 USD</t>
+          <t>64,26 USD</t>
         </is>
       </c>
     </row>
@@ -2729,12 +2729,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.09.10 23:00</t>
+          <t>2023.09.06 13:57</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.24943</t>
+          <t>1.25646</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>38,05 USD</t>
+          <t>12,74 USD</t>
         </is>
       </c>
     </row>
@@ -2771,12 +2771,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.09.15 15:11</t>
+          <t>2023.09.13 14:33</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.24069</t>
+          <t>1.24711</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>69,52 USD</t>
+          <t>46,40 USD</t>
         </is>
       </c>
     </row>
@@ -2813,12 +2813,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.09.12 22:51</t>
+          <t>2023.09.18 12:31</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.24985</t>
+          <t>1.24061</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2833,14 +2833,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>36,54 USD</t>
+          <t>69,80 USD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.09.13 14:52</t>
+          <t>2023.09.21 14:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.24977</t>
+          <t>1.22679</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>36,83 USD</t>
+          <t>59,78 USD</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.09.15 09:59</t>
+          <t>2023.09.12 08:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.24362</t>
+          <t>1.253</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2917,14 +2917,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>58,97 USD</t>
+          <t>25,20 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.09.06 16:07</t>
+          <t>2023.11.09 10:25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.25051</t>
+          <t>1.23028</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>34,16 USD</t>
+          <t>71,33 USD</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.09.06 15:45</t>
+          <t>2023.09.10 23:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.25449</t>
+          <t>1.24943</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>19,84 USD</t>
+          <t>38,05 USD</t>
         </is>
       </c>
     </row>
@@ -3023,12 +3023,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.09.11 15:30</t>
+          <t>2023.09.15 15:11</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.25435</t>
+          <t>1.24069</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>20,34 USD</t>
+          <t>69,52 USD</t>
         </is>
       </c>
     </row>
@@ -3065,12 +3065,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.09.13 14:48</t>
+          <t>2023.09.12 22:51</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.24833</t>
+          <t>1.24985</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>42,01 USD</t>
+          <t>36,54 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.08.23 09:35</t>
+          <t>2023.09.13 14:52</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.27184</t>
+          <t>1.24977</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3127,14 +3127,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-38,36 USD</t>
+          <t>36,83 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3149,39 +3149,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.24 15:10</t>
+          <t>2023.09.15 09:59</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.25834</t>
+          <t>1.24362</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.24 15:55</t>
+          <t>2023.11.24 16:01</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.25991</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1,88 USD</t>
+          <t>58,97 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,39 +3191,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.23 07:05</t>
+          <t>2023.09.06 16:07</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.65674</t>
+          <t>1.25051</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.24 15:55</t>
+          <t>2023.11.24 16:01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.65806</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>34,16 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3233,39 +3233,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.24 13:15</t>
+          <t>2023.09.06 15:45</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.09218</t>
+          <t>1.25449</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.24 15:53</t>
+          <t>2023.11.24 16:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.09339</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1,45 USD</t>
+          <t>19,84 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3275,34 +3275,34 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.23 12:49</t>
+          <t>2023.09.11 15:30</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.6567</t>
+          <t>1.25435</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.24 15:53</t>
+          <t>2023.11.24 16:01</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.65788</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1,42 USD</t>
+          <t>20,34 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3317,69 +3317,69 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.24 12:45</t>
+          <t>2023.09.13 14:48</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.25671</t>
+          <t>1.24833</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.24 15:10</t>
+          <t>2023.11.24 16:01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.25827</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1,87 USD</t>
+          <t>42,01 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.24 12:19</t>
+          <t>2023.08.23 09:35</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.83025</t>
+          <t>1.27184</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.24 14:27</t>
+          <t>2023.11.24 16:01</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.82952</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,02 USD</t>
+          <t>-38,36 USD</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3401,69 +3401,69 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.24 12:22</t>
+          <t>2023.11.24 15:10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.60665</t>
+          <t>1.25834</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.24 13:26</t>
+          <t>2023.11.24 15:55</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.60781</t>
+          <t>1.25991</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1,39 USD</t>
+          <t>1,88 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.23 15:50</t>
+          <t>2023.11.23 07:05</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.88357</t>
+          <t>0.65674</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.24 13:26</t>
+          <t>2023.11.24 15:55</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.88251</t>
+          <t>0.65806</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1,44 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.23 16:54</t>
+          <t>2023.11.24 13:15</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.09096</t>
+          <t>1.09218</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.24 13:15</t>
+          <t>2023.11.24 15:53</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.09212</t>
+          <t>1.09339</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1,39 USD</t>
+          <t>1,45 USD</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3527,27 +3527,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.24 09:40</t>
+          <t>2023.11.23 12:49</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.25513</t>
+          <t>0.6567</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.24 12:45</t>
+          <t>2023.11.24 15:53</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.25675</t>
+          <t>0.65788</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1,94 USD</t>
+          <t>1,42 USD</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3569,27 +3569,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.24 06:02</t>
+          <t>2023.11.24 12:45</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.60541</t>
+          <t>1.25671</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.24 12:22</t>
+          <t>2023.11.24 15:10</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.60656</t>
+          <t>1.25827</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1,38 USD</t>
+          <t>1,87 USD</t>
         </is>
       </c>
     </row>
@@ -3606,27 +3606,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.21 16:54</t>
+          <t>2023.11.24 12:19</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.82949</t>
+          <t>0.83025</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.24 12:19</t>
+          <t>2023.11.24 14:27</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.83032</t>
+          <t>0.82952</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3638,42 +3638,42 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IBEX35</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.24 12:03</t>
+          <t>2023.11.24 12:22</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>9943.4</t>
+          <t>0.60665</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.24 12:04</t>
+          <t>2023.11.24 13:26</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>9954.5</t>
+          <t>0.60781</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-0,12 USD</t>
+          <t>1,39 USD</t>
         </is>
       </c>
     </row>
@@ -3685,86 +3685,86 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.23 19:45</t>
+          <t>2023.11.23 15:50</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.25349</t>
+          <t>0.88357</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.24 09:40</t>
+          <t>2023.11.24 13:26</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.25507</t>
+          <t>0.88251</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1,90 USD</t>
+          <t>1,44 USD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.24 06:05</t>
+          <t>2023.11.23 16:54</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.25386</t>
+          <t>1.09096</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.24 08:30</t>
+          <t>2023.11.24 13:15</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.25286</t>
+          <t>1.09212</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1,05 USD</t>
+          <t>1,39 USD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3779,81 +3779,81 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.24 03:30</t>
+          <t>2023.11.24 09:40</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.25275</t>
+          <t>1.25513</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.24 06:00</t>
+          <t>2023.11.24 12:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.25375</t>
+          <t>1.25675</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1,05 USD</t>
+          <t>1,94 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.24 01:55</t>
+          <t>2023.11.24 06:02</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.25419</t>
+          <t>0.60541</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.24 03:05</t>
+          <t>2023.11.24 12:22</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.25319</t>
+          <t>0.60656</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1,05 USD</t>
+          <t>1,38 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3863,81 +3863,81 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.23 15:25</t>
+          <t>2023.11.21 16:54</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.25294</t>
+          <t>0.82949</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.23 16:42</t>
+          <t>2023.11.24 12:19</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.25394</t>
+          <t>0.83032</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1,05 USD</t>
+          <t>0,02 USD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>IBEX35</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.23 13:35</t>
+          <t>2023.11.24 12:03</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.09038</t>
+          <t>9943.4</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.23 16:30</t>
+          <t>2023.11.24 12:04</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.09087</t>
+          <t>9954.5</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0,37 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3947,81 +3947,81 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.23 15:15</t>
+          <t>2023.11.23 19:45</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.08944</t>
+          <t>1.25349</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.23 16:30</t>
+          <t>2023.11.24 09:40</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.09087</t>
+          <t>1.25507</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1,29 USD</t>
+          <t>1,90 USD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.23 15:37</t>
+          <t>2023.11.24 06:05</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>35303.5</t>
+          <t>1.25386</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.23 16:20</t>
+          <t>2023.11.24 08:30</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>35335.6</t>
+          <t>1.25286</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,64 USD</t>
+          <t>1,05 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>YM</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4031,81 +4031,81 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.22 18:13</t>
+          <t>2023.11.24 03:30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>35289.4</t>
+          <t>1.25275</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.23 15:36</t>
+          <t>2023.11.24 06:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>35303</t>
+          <t>1.25375</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>1,05 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.22 15:25</t>
+          <t>2023.11.24 01:55</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.37486</t>
+          <t>1.25419</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.23 14:20</t>
+          <t>2023.11.24 03:05</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.37099</t>
+          <t>1.25319</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-0,17 USD</t>
+          <t>1,05 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4115,39 +4115,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.22 19:00</t>
+          <t>2023.11.23 15:25</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.37088</t>
+          <t>1.25294</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.23 14:20</t>
+          <t>2023.11.23 16:42</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.37099</t>
+          <t>1.25394</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0,01 USD</t>
+          <t>1,05 USD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4157,39 +4157,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.23 04:00</t>
+          <t>2023.11.23 13:35</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.36829</t>
+          <t>1.09038</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.23 14:20</t>
+          <t>2023.11.23 16:30</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.37099</t>
+          <t>1.09087</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0,30 USD</t>
+          <t>0,37 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4199,123 +4199,123 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.23 12:34</t>
+          <t>2023.11.23 15:15</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.88375</t>
+          <t>1.08944</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.23 14:11</t>
+          <t>2023.11.23 16:30</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.88487</t>
+          <t>1.09087</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1,52 USD</t>
+          <t>1,29 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.23 10:55</t>
+          <t>2023.11.23 15:37</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.2559</t>
+          <t>35303.5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.23 13:49</t>
+          <t>2023.11.23 16:20</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.25419</t>
+          <t>35335.6</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2,05 USD</t>
+          <t>0,64 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>YM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.23 10:40</t>
+          <t>2023.11.22 18:13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.25437</t>
+          <t>35289.4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.23 13:49</t>
+          <t>2023.11.23 15:36</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.25419</t>
+          <t>35303</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4325,123 +4325,123 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.22 15:25</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.09241</t>
+          <t>1.37486</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.23 11:01</t>
+          <t>2023.11.23 14:20</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.09223</t>
+          <t>1.37099</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-0,11 USD</t>
+          <t>-0,17 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.23 09:30</t>
+          <t>2023.11.22 19:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.2526</t>
+          <t>1.37088</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.23 10:09</t>
+          <t>2023.11.23 14:20</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.25078</t>
+          <t>1.37099</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2,18 USD</t>
+          <t>0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.23 06:50</t>
+          <t>2023.11.23 04:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.25085</t>
+          <t>1.36829</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.23 10:09</t>
+          <t>2023.11.23 14:20</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.25078</t>
+          <t>1.37099</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,30 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4451,123 +4451,123 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.23 03:05</t>
+          <t>2023.11.23 12:34</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.65553</t>
+          <t>0.88375</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.23 07:05</t>
+          <t>2023.11.23 14:11</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.6567</t>
+          <t>0.88487</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>1,52 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.22 12:30</t>
+          <t>2023.11.23 10:55</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.65687</t>
+          <t>1.2559</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.23 03:05</t>
+          <t>2023.11.23 13:49</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.65547</t>
+          <t>1.25419</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-0,08 USD</t>
+          <t>2,05 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.23 10:40</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.6537</t>
+          <t>1.25437</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.23 03:05</t>
+          <t>2023.11.23 13:49</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.65547</t>
+          <t>1.25419</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,16 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BTCUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.16 18:49</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>36582.76</t>
+          <t>1.09241</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.22 21:14</t>
+          <t>2023.11.23 11:01</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>37184.91</t>
+          <t>1.09223</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>6,02 USD</t>
+          <t>-0,11 USD</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4619,67 +4619,319 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.17 17:40</t>
+          <t>2023.11.23 09:30</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.64906</t>
+          <t>1.2526</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.22 18:26</t>
+          <t>2023.11.23 10:09</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.65427</t>
+          <t>1.25078</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-6,25 USD</t>
+          <t>2,18 USD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023.11.23 06:50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.25085</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.25078</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0,07 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.65553</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.23 07:05</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.6567</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0,07 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.65687</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:05</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.65547</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.6537</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:05</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.65547</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0,16 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.16 18:49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>36582.76</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:14</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>37184.91</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>6,02 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.17 17:40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.64906</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.22 18:26</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.65427</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-6,25 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>EURUSD</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>sell</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>2023.11.22 16:11</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1.08563</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>2023.11.22 18:26</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>1.08816</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>-3,04 USD</t>
         </is>
